--- a/Civilworks cost/Expenditure_2016_17/Input output/Revised Budget 2017-18.xlsx
+++ b/Civilworks cost/Expenditure_2016_17/Input output/Revised Budget 2017-18.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Irrigation Inlet</t>
   </si>
@@ -91,6 +91,9 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>Regulator Gate Repair</t>
   </si>
 </sst>
 </file>
@@ -141,7 +144,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -160,6 +163,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -440,16 +450,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O11"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="33" customWidth="1"/>
-    <col min="3" max="6" width="11.7109375" customWidth="1"/>
+    <col min="2" max="2" width="60.140625" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
+    <col min="6" max="6" width="18.5703125" customWidth="1"/>
     <col min="7" max="11" width="15.7109375" customWidth="1"/>
     <col min="12" max="12" width="21" customWidth="1"/>
     <col min="13" max="13" width="15.85546875" customWidth="1"/>
@@ -458,34 +471,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="9" t="s">
         <v>19</v>
       </c>
       <c r="L1" s="3" t="s">
@@ -501,72 +514,72 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+    <row r="2" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8">
         <v>4111306</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0</v>
-      </c>
-      <c r="F2" s="1">
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2">
         <v>0</v>
       </c>
       <c r="G2" s="2">
-        <v>98604.24</v>
+        <v>0</v>
       </c>
       <c r="H2" s="2">
-        <v>605711.72</v>
+        <v>0</v>
       </c>
       <c r="I2" s="2">
         <v>0</v>
       </c>
       <c r="J2" s="2">
-        <v>704315.96</v>
+        <v>0</v>
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="5">
         <f>_xlfn.CEILING.MATH(J2/1000000)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M2" s="6">
         <f>L2*0.14*1000000</f>
-        <v>140000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="7">
         <f>L2*0.86*1000000</f>
-        <v>860000</v>
+        <v>0</v>
       </c>
       <c r="O2" s="7">
         <f>L2*10^6</f>
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
         <v>4111307</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="1">
-        <v>0</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0</v>
-      </c>
-      <c r="F3" s="1">
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2">
         <v>0</v>
       </c>
       <c r="G3" s="2">
@@ -599,317 +612,317 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+    <row r="4" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
         <v>4111307</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="1">
-        <v>450000000</v>
-      </c>
-      <c r="D4" s="1">
-        <v>3300000000</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0</v>
-      </c>
-      <c r="F4" s="1">
-        <v>3750000000</v>
+      <c r="C4" s="2">
+        <v>18000000</v>
+      </c>
+      <c r="D4" s="2">
+        <v>100000000</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
+        <v>118000000</v>
       </c>
       <c r="G4" s="2">
-        <v>36756054.920000002</v>
+        <v>5698419.0999999996</v>
       </c>
       <c r="H4" s="2">
-        <v>244620708.87</v>
+        <v>41393420.789999999</v>
       </c>
       <c r="I4" s="2">
         <v>0</v>
       </c>
       <c r="J4" s="2">
-        <v>281376763.79000002</v>
+        <v>47091839.890000001</v>
       </c>
       <c r="K4" s="2"/>
       <c r="L4" s="5">
         <f t="shared" si="0"/>
-        <v>282</v>
+        <v>48</v>
       </c>
       <c r="M4" s="6">
         <f t="shared" si="1"/>
-        <v>39480000.000000007</v>
+        <v>6720000.0000000009</v>
       </c>
       <c r="N4" s="7">
         <f t="shared" si="2"/>
-        <v>242520000</v>
+        <v>41280000</v>
       </c>
       <c r="O4" s="7">
         <f t="shared" si="3"/>
-        <v>282000000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+        <v>48000000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
         <v>4111307</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="1">
-        <v>100000000</v>
-      </c>
-      <c r="D5" s="1">
-        <v>740000000</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0</v>
-      </c>
-      <c r="F5" s="1">
-        <v>840000000</v>
+      <c r="C5" s="2">
+        <v>13000000</v>
+      </c>
+      <c r="D5" s="2">
+        <v>85000000</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2">
+        <v>98000000</v>
       </c>
       <c r="G5" s="2">
-        <v>11162270.970000001</v>
+        <v>2003856.74</v>
       </c>
       <c r="H5" s="2">
-        <v>76546996.469999999</v>
+        <v>14694947.41</v>
       </c>
       <c r="I5" s="2">
         <v>0</v>
       </c>
       <c r="J5" s="2">
-        <v>87709267.439999998</v>
+        <v>16698804.15</v>
       </c>
       <c r="K5" s="2"/>
       <c r="L5" s="5">
         <f t="shared" si="0"/>
-        <v>88</v>
+        <v>17</v>
       </c>
       <c r="M5" s="6">
         <f t="shared" si="1"/>
-        <v>12320000</v>
+        <v>2380000.0000000005</v>
       </c>
       <c r="N5" s="7">
         <f t="shared" si="2"/>
-        <v>75680000</v>
+        <v>14620000</v>
       </c>
       <c r="O5" s="7">
         <f t="shared" si="3"/>
-        <v>88000000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+        <v>17000000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
         <v>4111201</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="1">
-        <v>0</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0</v>
-      </c>
-      <c r="F6" s="1">
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2">
         <v>0</v>
       </c>
       <c r="G6" s="2">
-        <v>1691782.28</v>
+        <v>0</v>
       </c>
       <c r="H6" s="2">
-        <v>11321927.529999999</v>
+        <v>0</v>
       </c>
       <c r="I6" s="2">
         <v>0</v>
       </c>
       <c r="J6" s="2">
-        <v>13013709.810000001</v>
+        <v>0</v>
       </c>
       <c r="K6" s="2"/>
       <c r="L6" s="5">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="M6" s="6">
         <f t="shared" si="1"/>
-        <v>1960000.0000000002</v>
+        <v>0</v>
       </c>
       <c r="N6" s="7">
         <f t="shared" si="2"/>
-        <v>12040000</v>
+        <v>0</v>
       </c>
       <c r="O6" s="7">
         <f t="shared" si="3"/>
-        <v>14000000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
         <v>4111201</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="1">
-        <v>0</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0</v>
-      </c>
-      <c r="F7" s="1">
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
         <v>0</v>
       </c>
       <c r="G7" s="2">
-        <v>14000</v>
+        <v>0</v>
       </c>
       <c r="H7" s="2">
-        <v>86000</v>
+        <v>0</v>
       </c>
       <c r="I7" s="2">
         <v>0</v>
       </c>
       <c r="J7" s="2">
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="2"/>
       <c r="L7" s="5">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M7" s="6">
         <f t="shared" si="1"/>
-        <v>140000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="7">
         <f t="shared" si="2"/>
-        <v>860000</v>
+        <v>0</v>
       </c>
       <c r="O7" s="7">
         <f t="shared" si="3"/>
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
         <v>4111201</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="1">
-        <v>0</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0</v>
-      </c>
-      <c r="F8" s="1">
+      <c r="C8" s="2">
+        <v>0</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2">
         <v>0</v>
       </c>
       <c r="G8" s="2">
-        <v>794298.79</v>
+        <v>0</v>
       </c>
       <c r="H8" s="2">
-        <v>5323384</v>
+        <v>0</v>
       </c>
       <c r="I8" s="2">
         <v>0</v>
       </c>
       <c r="J8" s="2">
-        <v>6117682.79</v>
+        <v>0</v>
       </c>
       <c r="K8" s="2"/>
       <c r="L8" s="5">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="M8" s="6">
         <f t="shared" si="1"/>
-        <v>980000.00000000012</v>
+        <v>0</v>
       </c>
       <c r="N8" s="7">
         <f t="shared" si="2"/>
-        <v>6020000</v>
+        <v>0</v>
       </c>
       <c r="O8" s="7">
         <f t="shared" si="3"/>
-        <v>7000000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
         <v>4111201</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="1">
-        <v>470000000</v>
-      </c>
-      <c r="D9" s="1">
-        <v>3440000000</v>
-      </c>
-      <c r="E9" s="1">
-        <v>0</v>
-      </c>
-      <c r="F9" s="1">
-        <v>3910000000</v>
+      <c r="C9" s="2">
+        <v>23000000</v>
+      </c>
+      <c r="D9" s="2">
+        <v>144800000</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2">
+        <v>167800000</v>
       </c>
       <c r="G9" s="2">
-        <v>47668733.670000002</v>
+        <v>4200090.05</v>
       </c>
       <c r="H9" s="2">
-        <v>315699237.32999998</v>
+        <v>29930598.68</v>
       </c>
       <c r="I9" s="2">
         <v>0</v>
       </c>
       <c r="J9" s="2">
-        <v>363367971</v>
+        <v>34130688.729999997</v>
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="5">
         <f t="shared" si="0"/>
-        <v>364</v>
+        <v>35</v>
       </c>
       <c r="M9" s="6">
         <f t="shared" si="1"/>
-        <v>50960000.000000007</v>
+        <v>4900000</v>
       </c>
       <c r="N9" s="7">
         <f t="shared" si="2"/>
-        <v>313040000</v>
+        <v>30099999.999999996</v>
       </c>
       <c r="O9" s="7">
         <f t="shared" si="3"/>
-        <v>364000000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+        <v>35000000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
         <v>4111201</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="1">
-        <v>0</v>
-      </c>
-      <c r="D10" s="1">
-        <v>0</v>
-      </c>
-      <c r="E10" s="1">
-        <v>0</v>
-      </c>
-      <c r="F10" s="1">
+      <c r="C10" s="2">
+        <v>0</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2">
         <v>0</v>
       </c>
       <c r="G10" s="2">
@@ -942,23 +955,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+    <row r="11" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
         <v>4111201</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="1">
-        <v>0</v>
-      </c>
-      <c r="D11" s="1">
-        <v>0</v>
-      </c>
-      <c r="E11" s="1">
-        <v>0</v>
-      </c>
-      <c r="F11" s="1">
+      <c r="C11" s="2">
+        <v>0</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2">
         <v>0</v>
       </c>
       <c r="G11" s="2">
@@ -989,6 +1002,57 @@
       <c r="O11" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>3258114</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="2">
+        <v>720000</v>
+      </c>
+      <c r="D12" s="2">
+        <v>5280000</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2">
+        <v>6000000</v>
+      </c>
+      <c r="G12" s="2">
+        <v>716392</v>
+      </c>
+      <c r="H12" s="2">
+        <v>5253539</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0</v>
+      </c>
+      <c r="J12" s="2">
+        <v>5969931</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F13" s="10"/>
+      <c r="G13" s="10">
+        <f t="shared" ref="F13:G13" si="4">SUM(G2:G12)</f>
+        <v>12618757.890000001</v>
+      </c>
+      <c r="H13" s="10">
+        <f>SUM(H2:H12)</f>
+        <v>91272505.879999995</v>
+      </c>
+      <c r="I13" s="10">
+        <f t="shared" ref="I13:J13" si="5">SUM(I2:I12)</f>
+        <v>0</v>
+      </c>
+      <c r="J13" s="10">
+        <f t="shared" si="5"/>
+        <v>103891263.77</v>
       </c>
     </row>
   </sheetData>
